--- a/Tables/Granger_Causality_Test.xlsx
+++ b/Tables/Granger_Causality_Test.xlsx
@@ -428,28 +428,28 @@
         <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>0.103024085003274</v>
+        <v>0.000153496415212375</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F2" t="n">
-        <v>0.95795554392701</v>
+        <v>0.990153508679375</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>0.309072255009823</v>
+        <v>0.000153496415212375</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.958313301279748</v>
+        <v>0.990114968221619</v>
       </c>
       <c r="K2" t="s">
         <v>13</v>
@@ -463,28 +463,28 @@
         <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>1.66853270560745</v>
+        <v>0.836495106219022</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F3" t="n">
-        <v>0.184163234213803</v>
+        <v>0.363834152387232</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" t="n">
-        <v>5.00559811682236</v>
+        <v>0.836495106219022</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.171387681338681</v>
+        <v>0.360401099955478</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>

--- a/Tables/Granger_Causality_Test.xlsx
+++ b/Tables/Granger_Causality_Test.xlsx
@@ -1,56 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9357ead23f83527e/Time Series/Final Paper/TS_Final_paper/Tables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_C2CE303C2469AA4A2EEC4F9C010A53129275BB0B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35826E9B-1F9D-4013-AE36-CB9ECCA453F4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t xml:space="preserve">Response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impulse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">df1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">df2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p.F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sig.F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chisq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">df</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p.Chisq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sig.Chisq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coal</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Impulse</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>df1</t>
+  </si>
+  <si>
+    <t>df2</t>
+  </si>
+  <si>
+    <t>p.F</t>
+  </si>
+  <si>
+    <t>sig.F</t>
+  </si>
+  <si>
+    <t>Chisq</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>p.Chisq</t>
+  </si>
+  <si>
+    <t>sig.Chisq</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Coal</t>
   </si>
   <si>
     <t xml:space="preserve">   </t>
@@ -60,8 +68,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -90,13 +100,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -378,14 +398,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,71 +442,71 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.000153496415212375</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>64</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.990153508679375</v>
+      <c r="C2" s="1">
+        <v>0.100560135676004</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>57</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.95936814514888302</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.000153496415212375</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.990114968221619</v>
+      <c r="H2" s="1">
+        <v>0.30168040702801102</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.959712131895055</v>
       </c>
       <c r="K2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.836495106219022</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>64</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.363834152387232</v>
+      <c r="C3" s="1">
+        <v>1.6894329600842299</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>57</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.179460304937923</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.836495106219022</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.360401099955478</v>
+      <c r="H3" s="1">
+        <v>5.0682988802526996</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.16686373752347899</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
@@ -492,6 +514,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>